--- a/Mapping.xlsx
+++ b/Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Data\AnalyticByte\Grofer\Pricing Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3CE1CA-F69F-480C-ABCF-04F94CCC7D8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D3D595-8D4E-4103-9367-501EB7A9D0A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4E3BC877-FC8A-4ECA-BA11-2A7DFD287253}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="71">
   <si>
     <t>Value in City Column</t>
   </si>
@@ -223,13 +223,35 @@
   </si>
   <si>
     <t>Not sure correctly mapper or not</t>
+  </si>
+  <si>
+    <t>Correct mapping</t>
+  </si>
+  <si>
+    <t>It will come Type of Offer. e.g. if B10G2 given, Purchase qty will be 10 and Free Qty will be 2.</t>
+  </si>
+  <si>
+    <t>It will be in sequence. Since there are only two item ids, 1st item id will go in Item ID (Purchase) and 2nd item will go in Item ID (freebie)</t>
+  </si>
+  <si>
+    <t>or Do we need to add a column mentioning feebie item????</t>
+  </si>
+  <si>
+    <t>Similarly, Item id 1 multiplier will be mapped with Purchase Multiplier and Item id 2 multipler will be mapped with Freebie multiplier</t>
+  </si>
+  <si>
+    <t>Item ID 1-2 Multiplier</t>
+  </si>
+  <si>
+    <t>Offer PID may be there or not (as Offer PID are created later) . I have sent updated Input format in which I have removed few Offer PIDs in Combo. 
+Combo No. and Manufacturer could be used instead for Unique combination.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +274,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +347,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -326,11 +389,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -341,10 +422,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -353,6 +430,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -369,6 +477,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Abhishek Kaushik" id="{1BD77EC6-C4EC-48CF-A624-D8D023395A3B}" userId="Abhishek Kaushik" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,21 +783,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D401CE97-8622-49E4-887F-CB8C5C74842B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31:C33"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="24.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7265625" customWidth="1"/>
+    <col min="4" max="5" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.26953125" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" customWidth="1"/>
+    <col min="8" max="8" width="29.81640625" customWidth="1"/>
+    <col min="9" max="9" width="28.81640625" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -702,16 +820,16 @@
       <c r="F1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -743,7 +861,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -759,7 +877,7 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
@@ -772,8 +890,8 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -803,7 +921,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
@@ -833,7 +951,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -849,7 +967,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
@@ -867,7 +985,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
@@ -883,7 +1001,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
@@ -897,7 +1015,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -922,8 +1040,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -942,10 +1060,12 @@
       <c r="I12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="18" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -975,7 +1095,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1005,7 +1125,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1035,37 +1155,21 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1079,51 +1183,61 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="G18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="H18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +1267,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1167,7 +1281,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1295,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1309,7 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
@@ -1209,7 +1323,7 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -1223,21 +1337,25 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1267,7 +1385,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
@@ -1297,25 +1415,104 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C33" s="12" t="s">
+      <c r="D32" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="10" t="s">
         <v>61</v>
       </c>
+      <c r="F33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="F34" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="3:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="22"/>
+    </row>
+    <row r="40" spans="3:9" ht="123.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="F34:I35"/>
     <mergeCell ref="A3:A28"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="D42:D43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>